--- a/biology/Médecine/Gonadotrope/Gonadotrope.xlsx
+++ b/biology/Médecine/Gonadotrope/Gonadotrope.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les gonadotropes sont les cellules de l'anté-hypophyse qui produisent les deux gonadotrophines : l'hormone lutéinisante (LH) et l'hormone folliculo-stimulante (FSH), ainsi que les follistatines. Leur activité sécrétoire est sous le contrôle de la GnRH de hypothalamus[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les gonadotropes sont les cellules de l'anté-hypophyse qui produisent les deux gonadotrophines : l'hormone lutéinisante (LH) et l'hormone folliculo-stimulante (FSH), ainsi que les follistatines. Leur activité sécrétoire est sous le contrôle de la GnRH de hypothalamus.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cellules gonadotrophes ou gonadotrophes  sont des cellules endocrines[2] de l'hypophyse antérieure qui produisent les hormones dites gonadotrophines. Les gonadotropes sont une population minoritaire de cellules qui représentent entre 5 et 15 % de toutes les cellules de l'hypophyse antérieure.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cellules gonadotrophes ou gonadotrophes  sont des cellules endocrines de l'hypophyse antérieure qui produisent les hormones dites gonadotrophines. Les gonadotropes sont une population minoritaire de cellules qui représentent entre 5 et 15 % de toutes les cellules de l'hypophyse antérieure.
 Ces cellules sécrètent les deux gonadotrophines : l'hormone follistatine (FSH) et l'hormone lutéinisante (LH) , au sein du système circulatoire général par lequel elles atteignent les gonades.
 Les gonadotropes apparaissent basophiles dans les préparations histologiques.
-Les gonadotropes possèdent des récepteurs d'insuline, qui peuvent être surstimulés par des taux d'insuline trop élevés. Cela peut conduire à l'infertilité car les niveaux de libération des hormones sont alors perturbés[3],[4].
-Les gonadotropes peuvent être inhibés par des hormones spécifiques comme l'œstradiol[5].
+Les gonadotropes possèdent des récepteurs d'insuline, qui peuvent être surstimulés par des taux d'insuline trop élevés. Cela peut conduire à l'infertilité car les niveaux de libération des hormones sont alors perturbés,.
+Les gonadotropes peuvent être inhibés par des hormones spécifiques comme l'œstradiol.
 </t>
         </is>
       </c>
